--- a/TP_Plasma/Datas/P_N.xlsx
+++ b/TP_Plasma/Datas/P_N.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>3.1e-2</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>6e-1</t>
+  </si>
+  <si>
+    <t>7.3e-1</t>
+  </si>
+  <si>
+    <t>8.4e-1</t>
   </si>
 </sst>
 </file>
@@ -195,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -211,9 +217,6 @@
     </xf>
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -532,9 +535,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -967,8 +970,8 @@
       <c r="A47" s="1">
         <v>47</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>1</v>
+      <c r="B47" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C47" s="4"/>
     </row>
@@ -976,8 +979,8 @@
       <c r="A48" s="1">
         <v>48</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>1</v>
+      <c r="B48" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C48" s="4"/>
     </row>
@@ -1027,7 +1030,7 @@
       <c r="A55" s="1">
         <v>55</v>
       </c>
-      <c r="B55" s="7"/>
+      <c r="B55" s="6"/>
       <c r="C55" s="4"/>
     </row>
   </sheetData>
